--- a/result/without_base/124/arousal/s09_4.xlsx
+++ b/result/without_base/124/arousal/s09_4.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.7675000131130219</v>
+        <v>0.7074999809265137</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -516,7 +516,7 @@
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001</v>
+        <v>5e-05</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6074999868869781</v>
+        <v>0.5075000077486038</v>
       </c>
       <c r="C2" t="n">
-        <v>41731.134765625</v>
+        <v>41857.060546875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6282954432747581</v>
+        <v>0.6011363593014803</v>
       </c>
       <c r="E2" t="n">
-        <v>41728.72762784091</v>
+        <v>41841.59943181818</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6399999856948853</v>
+        <v>0.5150000005960464</v>
       </c>
       <c r="C3" t="n">
-        <v>40975.162109375</v>
+        <v>41116.482421875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6485227238048207</v>
+        <v>0.6118181835521351</v>
       </c>
       <c r="E3" t="n">
-        <v>40975.07990056818</v>
+        <v>41106.42329545454</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +606,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6649999916553497</v>
+        <v>0.572500005364418</v>
       </c>
       <c r="C4" t="n">
-        <v>40236.955078125</v>
+        <v>40384.53515625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6637499928474426</v>
+        <v>0.6529545458880338</v>
       </c>
       <c r="E4" t="n">
-        <v>40238.53373579546</v>
+        <v>40380.18217329546</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +623,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6400000154972076</v>
+        <v>0.6474999785423279</v>
       </c>
       <c r="C5" t="n">
-        <v>39517.732421875</v>
+        <v>39666.880859375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6651136224920099</v>
+        <v>0.6426136276938699</v>
       </c>
       <c r="E5" t="n">
-        <v>39516.32563920454</v>
+        <v>39668.05752840909</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +640,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6525000035762787</v>
+        <v>0.5849999934434891</v>
       </c>
       <c r="C6" t="n">
-        <v>38799.98046875</v>
+        <v>38969.076171875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6592045426368713</v>
+        <v>0.6767045476219871</v>
       </c>
       <c r="E6" t="n">
-        <v>38800.40411931818</v>
+        <v>38966.37961647727</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +657,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.617499977350235</v>
+        <v>0.5649999976158142</v>
       </c>
       <c r="C7" t="n">
-        <v>38101.615234375</v>
+        <v>38272.29296875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6757954521612688</v>
+        <v>0.6824999939311635</v>
       </c>
       <c r="E7" t="n">
-        <v>38100.41548295454</v>
+        <v>38269.94495738636</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +674,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6149999797344208</v>
+        <v>0.6475000083446503</v>
       </c>
       <c r="C8" t="n">
-        <v>37411.75</v>
+        <v>37581.333984375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6768181865865533</v>
+        <v>0.6945454586635936</v>
       </c>
       <c r="E8" t="n">
-        <v>37410.61931818182</v>
+        <v>37580.70845170454</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +691,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7075000107288361</v>
+        <v>0.6099999845027924</v>
       </c>
       <c r="C9" t="n">
-        <v>36727.291015625</v>
+        <v>36906.6640625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6813636313785206</v>
+        <v>0.690681820566004</v>
       </c>
       <c r="E9" t="n">
-        <v>36727.84090909091</v>
+        <v>36904.30007102273</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +708,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6274999976158142</v>
+        <v>0.6500000059604645</v>
       </c>
       <c r="C10" t="n">
-        <v>36059.75</v>
+        <v>36235.271484375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6697727333415638</v>
+        <v>0.6999999934976752</v>
       </c>
       <c r="E10" t="n">
-        <v>36058.91548295454</v>
+        <v>36233.81143465909</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7149999737739563</v>
+        <v>0.6550000011920929</v>
       </c>
       <c r="C11" t="n">
-        <v>35395.54296875</v>
+        <v>35575.01953125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6723863645033403</v>
+        <v>0.6927272731607611</v>
       </c>
       <c r="E11" t="n">
-        <v>35396.18714488636</v>
+        <v>35574.40696022727</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6424999833106995</v>
+        <v>0.6649999916553497</v>
       </c>
       <c r="C12" t="n">
-        <v>34747.1328125</v>
+        <v>34925.87109375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7024999965320934</v>
+        <v>0.7294318079948425</v>
       </c>
       <c r="E12" t="n">
-        <v>34746.03693181818</v>
+        <v>34924.60014204546</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +759,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6674999892711639</v>
+        <v>0.7025000154972076</v>
       </c>
       <c r="C13" t="n">
-        <v>34104.50390625</v>
+        <v>34285.09375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7255681807344611</v>
+        <v>0.7390909032388167</v>
       </c>
       <c r="E13" t="n">
-        <v>34104.08380681818</v>
+        <v>34284.19247159091</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +776,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7025000154972076</v>
+        <v>0.6500000059604645</v>
       </c>
       <c r="C14" t="n">
-        <v>33473.4296875</v>
+        <v>33655.91796875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7346590865742076</v>
+        <v>0.7313636324622415</v>
       </c>
       <c r="E14" t="n">
-        <v>33472.90802556818</v>
+        <v>33654.35404829546</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +793,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7100000083446503</v>
+        <v>0.7050000131130219</v>
       </c>
       <c r="C15" t="n">
-        <v>32852.296875</v>
+        <v>33034.408203125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7334090850569985</v>
+        <v>0.7463636344129388</v>
       </c>
       <c r="E15" t="n">
-        <v>32851.87890625</v>
+        <v>33033.51491477273</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +810,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7175000011920929</v>
+        <v>0.6825000047683716</v>
       </c>
       <c r="C16" t="n">
-        <v>32240.873046875</v>
+        <v>32423.4970703125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7170454480431296</v>
+        <v>0.730795453895222</v>
       </c>
       <c r="E16" t="n">
-        <v>32240.49698153409</v>
+        <v>32422.87127130682</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +827,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6825000047683716</v>
+        <v>0.6350000202655792</v>
       </c>
       <c r="C17" t="n">
-        <v>31639.2861328125</v>
+        <v>31823.5732421875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7585227218541232</v>
+        <v>0.7571590813723478</v>
       </c>
       <c r="E17" t="n">
-        <v>31638.85759943182</v>
+        <v>31822.21537642046</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +844,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6824999749660492</v>
+        <v>0.617499977350235</v>
       </c>
       <c r="C18" t="n">
-        <v>31047.623046875</v>
+        <v>31232.318359375</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7501136335459623</v>
+        <v>0.7682954614812677</v>
       </c>
       <c r="E18" t="n">
-        <v>31047.16424005682</v>
+        <v>31231.21750710227</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +861,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7199999988079071</v>
+        <v>0.6875</v>
       </c>
       <c r="C19" t="n">
-        <v>30466.30859375</v>
+        <v>30651.197265625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7538636435161937</v>
+        <v>0.7617045478387312</v>
       </c>
       <c r="E19" t="n">
-        <v>30465.62713068182</v>
+        <v>30649.93412642046</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +878,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6875</v>
+        <v>0.6700000166893005</v>
       </c>
       <c r="C20" t="n">
-        <v>29893.796875</v>
+        <v>30080.2333984375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7688636400482871</v>
+        <v>0.7581818157976324</v>
       </c>
       <c r="E20" t="n">
-        <v>29893.13884943182</v>
+        <v>30078.56658380682</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +895,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7449999749660492</v>
+        <v>0.6975000202655792</v>
       </c>
       <c r="C21" t="n">
-        <v>29330.7841796875</v>
+        <v>29516.99609375</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7651136300780557</v>
+        <v>0.7670454491268505</v>
       </c>
       <c r="E21" t="n">
-        <v>29330.52077414773</v>
+        <v>29516.060546875</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +912,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7100000083446503</v>
+        <v>0.6150000095367432</v>
       </c>
       <c r="C22" t="n">
-        <v>28777.7744140625</v>
+        <v>28965.83203125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7845454541119662</v>
+        <v>0.7459090948104858</v>
       </c>
       <c r="E22" t="n">
-        <v>28777.380859375</v>
+        <v>28964.06196732954</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +929,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7175000011920929</v>
+        <v>0.6099999845027924</v>
       </c>
       <c r="C23" t="n">
-        <v>28234.3994140625</v>
+        <v>28422.826171875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7862499952316284</v>
+        <v>0.7294318188320507</v>
       </c>
       <c r="E23" t="n">
-        <v>28233.70419034091</v>
+        <v>28420.96697443182</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +946,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7149999737739563</v>
+        <v>0.7100000083446503</v>
       </c>
       <c r="C24" t="n">
-        <v>27699.7177734375</v>
+        <v>27886.7509765625</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7153409177606757</v>
+        <v>0.7761363658038053</v>
       </c>
       <c r="E24" t="n">
-        <v>27699.58416193182</v>
+        <v>27886.11097301136</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +963,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7325000166893005</v>
+        <v>0.7100000083446503</v>
       </c>
       <c r="C25" t="n">
-        <v>27174.638671875</v>
+        <v>27361.771484375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7878409136425365</v>
+        <v>0.7748863751238043</v>
       </c>
       <c r="E25" t="n">
-        <v>27174.15092329546</v>
+        <v>27361.32599431818</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +980,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6475000083446503</v>
+        <v>0.6449999809265137</v>
       </c>
       <c r="C26" t="n">
-        <v>26658.9189453125</v>
+        <v>26846.4873046875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7767045443708246</v>
+        <v>0.7842045534740795</v>
       </c>
       <c r="E26" t="n">
-        <v>26658.30450994318</v>
+        <v>26845.52095170454</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +997,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.675000011920929</v>
+        <v>0.679999977350235</v>
       </c>
       <c r="C27" t="n">
-        <v>26152.4677734375</v>
+        <v>26339.2392578125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7593181837688793</v>
+        <v>0.7873863632028754</v>
       </c>
       <c r="E27" t="n">
-        <v>26151.55113636364</v>
+        <v>26338.46235795454</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1014,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6775000095367432</v>
+        <v>0.6450000107288361</v>
       </c>
       <c r="C28" t="n">
-        <v>25653.7666015625</v>
+        <v>25841.3681640625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.769204551523382</v>
+        <v>0.7880681807344611</v>
       </c>
       <c r="E28" t="n">
-        <v>25652.93323863636</v>
+        <v>25840.35298295454</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1031,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7150000035762787</v>
+        <v>0.6800000071525574</v>
       </c>
       <c r="C29" t="n">
-        <v>25163.7568359375</v>
+        <v>25351.650390625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.800909085707231</v>
+        <v>0.789318176833066</v>
       </c>
       <c r="E29" t="n">
-        <v>25163.13707386364</v>
+        <v>25350.77681107954</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1048,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7075000107288361</v>
+        <v>0.6550000011920929</v>
       </c>
       <c r="C30" t="n">
-        <v>24682.5322265625</v>
+        <v>24870.59375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7976136370138689</v>
+        <v>0.7998863675377585</v>
       </c>
       <c r="E30" t="n">
-        <v>24682.171875</v>
+        <v>24869.74964488636</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1065,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7024999856948853</v>
+        <v>0.6150000095367432</v>
       </c>
       <c r="C31" t="n">
-        <v>24210.4091796875</v>
+        <v>24399.6328125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.793295453895222</v>
+        <v>0.7398863705721769</v>
       </c>
       <c r="E31" t="n">
-        <v>24209.80166903409</v>
+        <v>24398.02183948864</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1082,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6800000071525574</v>
+        <v>0.5924999862909317</v>
       </c>
       <c r="C32" t="n">
-        <v>23746.4443359375</v>
+        <v>23934.7216796875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7843181816014376</v>
+        <v>0.7648863629861311</v>
       </c>
       <c r="E32" t="n">
-        <v>23745.65411931818</v>
+        <v>23933.50710227273</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1099,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6949999928474426</v>
+        <v>0.5975000113248825</v>
       </c>
       <c r="C33" t="n">
-        <v>23289.87890625</v>
+        <v>23478.6767578125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.802500004118139</v>
+        <v>0.772045455195687</v>
       </c>
       <c r="E33" t="n">
-        <v>23289.427734375</v>
+        <v>23477.43199573864</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1116,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7325000166893005</v>
+        <v>0.6500000059604645</v>
       </c>
       <c r="C34" t="n">
-        <v>22841.888671875</v>
+        <v>23030.0849609375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8060227361592379</v>
+        <v>0.803636372089386</v>
       </c>
       <c r="E34" t="n">
-        <v>22841.46519886364</v>
+        <v>23029.09907670454</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1133,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6800000071525574</v>
+        <v>0.6625000238418579</v>
       </c>
       <c r="C35" t="n">
-        <v>22402.4267578125</v>
+        <v>22589.716796875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7821590954607184</v>
+        <v>0.817272728139704</v>
       </c>
       <c r="E35" t="n">
-        <v>22401.72745028409</v>
+        <v>22588.86345880682</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1150,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7524999976158142</v>
+        <v>0.7175000011920929</v>
       </c>
       <c r="C36" t="n">
-        <v>21969.7939453125</v>
+        <v>22157.1396484375</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7802272764119235</v>
+        <v>0.8139772740277377</v>
       </c>
       <c r="E36" t="n">
-        <v>21969.44779829546</v>
+        <v>22156.525390625</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1167,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7400000095367432</v>
+        <v>0.7475000023841858</v>
       </c>
       <c r="C37" t="n">
-        <v>21545.431640625</v>
+        <v>21732.421875</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8092045404694297</v>
+        <v>0.8120454549789429</v>
       </c>
       <c r="E37" t="n">
-        <v>21545.00727982954</v>
+        <v>21731.86399147727</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1184,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6899999976158142</v>
+        <v>0.7074999809265137</v>
       </c>
       <c r="C38" t="n">
-        <v>21128.982421875</v>
+        <v>21315.2265625</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8065909093076532</v>
+        <v>0.8123863610354337</v>
       </c>
       <c r="E38" t="n">
-        <v>21128.32155539773</v>
+        <v>21314.67684659091</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1201,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7224999964237213</v>
+        <v>0.6424999833106995</v>
       </c>
       <c r="C39" t="n">
-        <v>20719.501953125</v>
+        <v>20906.314453125</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8088636344129388</v>
+        <v>0.7929545424201272</v>
       </c>
       <c r="E39" t="n">
-        <v>20718.91352982954</v>
+        <v>20905.10617897727</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1218,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7549999952316284</v>
+        <v>0.7000000178813934</v>
       </c>
       <c r="C40" t="n">
-        <v>20317.095703125</v>
+        <v>20503.193359375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8129545504396612</v>
+        <v>0.7995454398068514</v>
       </c>
       <c r="E40" t="n">
-        <v>20316.794921875</v>
+        <v>20502.54119318182</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1235,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7199999988079071</v>
+        <v>0.6825000047683716</v>
       </c>
       <c r="C41" t="n">
-        <v>19922.6416015625</v>
+        <v>20107.7822265625</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8060227307406339</v>
+        <v>0.8067045428536155</v>
       </c>
       <c r="E41" t="n">
-        <v>19922.10564630682</v>
+        <v>20107.22869318182</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1252,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7425000071525574</v>
+        <v>0.7275000214576721</v>
       </c>
       <c r="C42" t="n">
-        <v>19534.9375</v>
+        <v>19719.6640625</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8109090870076959</v>
+        <v>0.8337499932809309</v>
       </c>
       <c r="E42" t="n">
-        <v>19534.40163352273</v>
+        <v>19718.97531960227</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1269,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7150000035762787</v>
+        <v>0.6574999988079071</v>
       </c>
       <c r="C43" t="n">
-        <v>19154.30859375</v>
+        <v>19338.638671875</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8129545504396612</v>
+        <v>0.8004545352675698</v>
       </c>
       <c r="E43" t="n">
-        <v>19153.74112215909</v>
+        <v>19337.89293323864</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1286,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.762499988079071</v>
+        <v>0.7050000131130219</v>
       </c>
       <c r="C44" t="n">
-        <v>18780.193359375</v>
+        <v>18964.0615234375</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8118181824684143</v>
+        <v>0.8192045471884988</v>
       </c>
       <c r="E44" t="n">
-        <v>18779.85102982954</v>
+        <v>18963.41637073864</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1303,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7099999785423279</v>
+        <v>0.6550000011920929</v>
       </c>
       <c r="C45" t="n">
-        <v>18413.0927734375</v>
+        <v>18596.75</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8243181868032976</v>
+        <v>0.8079545389522206</v>
       </c>
       <c r="E45" t="n">
-        <v>18412.70561079546</v>
+        <v>18595.81640625</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1320,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7100000083446503</v>
+        <v>0.7074999809265137</v>
       </c>
       <c r="C46" t="n">
-        <v>18053.0986328125</v>
+        <v>18235.0048828125</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8098863688382235</v>
+        <v>0.7826136296445673</v>
       </c>
       <c r="E46" t="n">
-        <v>18052.46768465909</v>
+        <v>18234.66779119318</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1337,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.737500011920929</v>
+        <v>0.6475000083446503</v>
       </c>
       <c r="C47" t="n">
-        <v>17698.896484375</v>
+        <v>17881.2294921875</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8250000043348833</v>
+        <v>0.7734090902588584</v>
       </c>
       <c r="E47" t="n">
-        <v>17698.41033380682</v>
+        <v>17880.33362926136</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1354,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7150000035762787</v>
+        <v>0.6024999916553497</v>
       </c>
       <c r="C48" t="n">
-        <v>17351.9111328125</v>
+        <v>17533.88671875</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8036363666707819</v>
+        <v>0.7353409095243975</v>
       </c>
       <c r="E48" t="n">
-        <v>17351.171875</v>
+        <v>17532.5234375</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1371,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7149999737739563</v>
+        <v>0.617499977350235</v>
       </c>
       <c r="C49" t="n">
-        <v>17010.4052734375</v>
+        <v>17191.2119140625</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8198863593014803</v>
+        <v>0.8010227246717974</v>
       </c>
       <c r="E49" t="n">
-        <v>17009.83149857954</v>
+        <v>17190.19105113636</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1388,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7450000047683716</v>
+        <v>0.7549999952316284</v>
       </c>
       <c r="C50" t="n">
-        <v>16675.478515625</v>
+        <v>16854.62890625</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8134090954607184</v>
+        <v>0.8190909028053284</v>
       </c>
       <c r="E50" t="n">
-        <v>16675.02219460227</v>
+        <v>16854.28284801136</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1408,13 +1408,13 @@
         <v>0.6825000047683716</v>
       </c>
       <c r="C51" t="n">
-        <v>16346.751953125</v>
+        <v>16525.271484375</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8092045513066378</v>
+        <v>0.8252272660082037</v>
       </c>
       <c r="E51" t="n">
-        <v>16346.14328835227</v>
+        <v>16524.66885653409</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1422,16 +1422,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7199999988079071</v>
+        <v>0.6024999916553497</v>
       </c>
       <c r="C52" t="n">
-        <v>16023.6435546875</v>
+        <v>16202.7314453125</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8247727264057506</v>
+        <v>0.7459090893918817</v>
       </c>
       <c r="E52" t="n">
-        <v>16023.2080078125</v>
+        <v>16201.56471946023</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1439,16 +1439,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7524999976158142</v>
+        <v>0.7150000035762787</v>
       </c>
       <c r="C53" t="n">
-        <v>15706.5546875</v>
+        <v>15883.88671875</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8234090913425792</v>
+        <v>0.8228409073569558</v>
       </c>
       <c r="E53" t="n">
-        <v>15706.20383522727</v>
+        <v>15883.259765625</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1456,16 +1456,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6974999904632568</v>
+        <v>0.6450000107288361</v>
       </c>
       <c r="C54" t="n">
-        <v>15395.60693359375</v>
+        <v>15572.08984375</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8267045454545454</v>
+        <v>0.8303409164602106</v>
       </c>
       <c r="E54" t="n">
-        <v>15395.13609730114</v>
+        <v>15571.33842329545</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1473,16 +1473,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7849999964237213</v>
+        <v>0.6975000202655792</v>
       </c>
       <c r="C55" t="n">
-        <v>15090.00537109375</v>
+        <v>15265.6962890625</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8150000030344183</v>
+        <v>0.8195454532449896</v>
       </c>
       <c r="E55" t="n">
-        <v>15089.72718394886</v>
+        <v>15265.04412286932</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1490,16 +1490,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6725000143051147</v>
+        <v>0.7199999988079071</v>
       </c>
       <c r="C56" t="n">
-        <v>14790.49169921875</v>
+        <v>14964.8115234375</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8156818097287958</v>
+        <v>0.8168181777000427</v>
       </c>
       <c r="E56" t="n">
-        <v>14789.94327059659</v>
+        <v>14964.28355823864</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1507,16 +1507,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6599999964237213</v>
+        <v>0.5824999958276749</v>
       </c>
       <c r="C57" t="n">
-        <v>14496.62451171875</v>
+        <v>14671.3349609375</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7782954573631287</v>
+        <v>0.704318182034926</v>
       </c>
       <c r="E57" t="n">
-        <v>14495.87606534091</v>
+        <v>14670.01358309659</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1524,16 +1524,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7475000023841858</v>
+        <v>0.6475000083446503</v>
       </c>
       <c r="C58" t="n">
-        <v>14206.98779296875</v>
+        <v>14380.13623046875</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8248863653703169</v>
+        <v>0.7917045463215221</v>
       </c>
       <c r="E58" t="n">
-        <v>14206.64488636364</v>
+        <v>14379.40775923295</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1541,16 +1541,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.625</v>
+        <v>0.7325000166893005</v>
       </c>
       <c r="C59" t="n">
-        <v>13924.2900390625</v>
+        <v>14095.15283203125</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7557954625649885</v>
+        <v>0.8235227248885415</v>
       </c>
       <c r="E59" t="n">
-        <v>13923.64018110795</v>
+        <v>14094.66352982955</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1558,16 +1558,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7350000143051147</v>
+        <v>0.7300000190734863</v>
       </c>
       <c r="C60" t="n">
-        <v>13645.2236328125</v>
+        <v>13815.7587890625</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8379545482722196</v>
+        <v>0.8268181844191118</v>
       </c>
       <c r="E60" t="n">
-        <v>13644.76571377841</v>
+        <v>13815.25594815341</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1575,16 +1575,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="C61" t="n">
-        <v>13372.18798828125</v>
+        <v>13542.390625</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8192045471884988</v>
+        <v>0.7772727283564481</v>
       </c>
       <c r="E61" t="n">
-        <v>13371.72017045455</v>
+        <v>13541.4208984375</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1592,16 +1592,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6775000095367432</v>
+        <v>0.7275000214576721</v>
       </c>
       <c r="C62" t="n">
-        <v>13104.2119140625</v>
+        <v>13272.15478515625</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8147727305238898</v>
+        <v>0.8131818175315857</v>
       </c>
       <c r="E62" t="n">
-        <v>13103.64888139205</v>
+        <v>13271.88139204545</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1609,16 +1609,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7024999856948853</v>
+        <v>0.6274999976158142</v>
       </c>
       <c r="C63" t="n">
-        <v>12841.17236328125</v>
+        <v>13009.02001953125</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8110227259722623</v>
+        <v>0.7729545398191973</v>
       </c>
       <c r="E63" t="n">
-        <v>12840.60111860795</v>
+        <v>13008.02006392045</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1626,16 +1626,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7725000083446503</v>
+        <v>0.7175000011920929</v>
       </c>
       <c r="C64" t="n">
-        <v>12582.45849609375</v>
+        <v>12748.56494140625</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7851136435161937</v>
+        <v>0.8198863593014803</v>
       </c>
       <c r="E64" t="n">
-        <v>12582.27468039773</v>
+        <v>12748.26020951705</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1643,16 +1643,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6700000166893005</v>
+        <v>0.6149999797344208</v>
       </c>
       <c r="C65" t="n">
-        <v>12329.80126953125</v>
+        <v>12495.0244140625</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7689772681756453</v>
+        <v>0.7572727311741222</v>
       </c>
       <c r="E65" t="n">
-        <v>12329.14515269886</v>
+        <v>12494.15589488636</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1660,16 +1660,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7274999916553497</v>
+        <v>0.6550000011920929</v>
       </c>
       <c r="C66" t="n">
-        <v>12080.41357421875</v>
+        <v>12244.55322265625</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8212499997832559</v>
+        <v>0.8229545463215221</v>
       </c>
       <c r="E66" t="n">
-        <v>12080.05894886364</v>
+        <v>12243.91672585227</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1677,16 +1677,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7325000166893005</v>
+        <v>0.6850000023841858</v>
       </c>
       <c r="C67" t="n">
-        <v>11836.181640625</v>
+        <v>11999.1865234375</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8220454562794078</v>
+        <v>0.8139772686091337</v>
       </c>
       <c r="E67" t="n">
-        <v>11835.89240056818</v>
+        <v>11998.62961647727</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1694,16 +1694,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7749999761581421</v>
+        <v>0.6800000071525574</v>
       </c>
       <c r="C68" t="n">
-        <v>11596.53271484375</v>
+        <v>11758.32275390625</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8239772753282026</v>
+        <v>0.8274999965320934</v>
       </c>
       <c r="E68" t="n">
-        <v>11596.28551136364</v>
+        <v>11757.81853693182</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1711,16 +1711,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8074999749660492</v>
+        <v>0.7449999749660492</v>
       </c>
       <c r="C69" t="n">
-        <v>11361.39501953125</v>
+        <v>11521.8134765625</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7487500039013949</v>
+        <v>0.755227267742157</v>
       </c>
       <c r="E69" t="n">
-        <v>11361.39701704545</v>
+        <v>11521.72354403409</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1728,16 +1728,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6899999976158142</v>
+        <v>0.6800000071525574</v>
       </c>
       <c r="C70" t="n">
-        <v>11131.27685546875</v>
+        <v>11290.17578125</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8074999939311635</v>
+        <v>0.8318181904879484</v>
       </c>
       <c r="E70" t="n">
-        <v>11130.72034801136</v>
+        <v>11289.63636363636</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1745,16 +1745,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6675000190734863</v>
+        <v>0.737500011920929</v>
       </c>
       <c r="C71" t="n">
-        <v>10904.9306640625</v>
+        <v>11062.4404296875</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7924999973990701</v>
+        <v>0.7926136417822405</v>
       </c>
       <c r="E71" t="n">
-        <v>10904.36265980114</v>
+        <v>11062.16441761364</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1762,16 +1762,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6975000202655792</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="C72" t="n">
-        <v>10682.72265625</v>
+        <v>10839.4658203125</v>
       </c>
       <c r="D72" t="n">
-        <v>0.775227281180295</v>
+        <v>0.7959090850569985</v>
       </c>
       <c r="E72" t="n">
-        <v>10682.42080965909</v>
+        <v>10838.92063210227</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1779,16 +1779,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6974999904632568</v>
+        <v>0.7199999988079071</v>
       </c>
       <c r="C73" t="n">
-        <v>10464.75634765625</v>
+        <v>10619.828125</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7955681790005077</v>
+        <v>0.7806818105957725</v>
       </c>
       <c r="E73" t="n">
-        <v>10464.34738991477</v>
+        <v>10619.68474786932</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1796,16 +1796,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7674999833106995</v>
+        <v>0.6299999952316284</v>
       </c>
       <c r="C74" t="n">
-        <v>10250.5830078125</v>
+        <v>10405.484375</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8129545558582653</v>
+        <v>0.7861363616856661</v>
       </c>
       <c r="E74" t="n">
-        <v>10250.37446732955</v>
+        <v>10404.69344815341</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1813,16 +1813,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6625000238418579</v>
+        <v>0.6550000011920929</v>
       </c>
       <c r="C75" t="n">
-        <v>10041.56689453125</v>
+        <v>10194.1953125</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7665909149430015</v>
+        <v>0.7949999950148843</v>
       </c>
       <c r="E75" t="n">
-        <v>10040.93013139205</v>
+        <v>10193.54501065341</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1830,16 +1830,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7924999892711639</v>
+        <v>0.7349999845027924</v>
       </c>
       <c r="C76" t="n">
-        <v>9834.9287109375</v>
+        <v>9986.5732421875</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8053409186276522</v>
+        <v>0.8206818266348406</v>
       </c>
       <c r="E76" t="n">
-        <v>9834.761097301136</v>
+        <v>9986.27743252841</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1847,16 +1847,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7524999976158142</v>
+        <v>0.7100000083446503</v>
       </c>
       <c r="C77" t="n">
-        <v>9633.10205078125</v>
+        <v>9783.35302734375</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8143181800842285</v>
+        <v>0.8263636502352628</v>
       </c>
       <c r="E77" t="n">
-        <v>9632.810280539772</v>
+        <v>9783.019264914772</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1864,16 +1864,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7649999856948853</v>
+        <v>0.6650000214576721</v>
       </c>
       <c r="C78" t="n">
-        <v>9434.9296875</v>
+        <v>9584.2412109375</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8097727244550531</v>
+        <v>0.7947727279229597</v>
       </c>
       <c r="E78" t="n">
-        <v>9434.65234375</v>
+        <v>9583.7294921875</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1881,16 +1881,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6675000190734863</v>
+        <v>0.625</v>
       </c>
       <c r="C79" t="n">
-        <v>9241.18212890625</v>
+        <v>9388.951171875</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7909090898253701</v>
+        <v>0.7717045491391962</v>
       </c>
       <c r="E79" t="n">
-        <v>9240.532670454546</v>
+        <v>9388.276100852272</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1898,16 +1898,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7224999964237213</v>
+        <v>0.7450000047683716</v>
       </c>
       <c r="C80" t="n">
-        <v>9050.1220703125</v>
+        <v>9196.07958984375</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8057954582301053</v>
+        <v>0.7995454452254556</v>
       </c>
       <c r="E80" t="n">
-        <v>9049.681285511364</v>
+        <v>9195.950994318182</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1915,16 +1915,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7675000131130219</v>
+        <v>0.7074999809265137</v>
       </c>
       <c r="C81" t="n">
-        <v>8862.70361328125</v>
+        <v>9007.87646484375</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7972727309573781</v>
+        <v>0.8252272714268077</v>
       </c>
       <c r="E81" t="n">
-        <v>8862.528497869318</v>
+        <v>9007.527610085228</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0.006802721088435374</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1981,13 +1981,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.01360544217687075</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.1182795698924731</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1995,21 +1995,21 @@
         <v>0.01360544217687075</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05376344086021505</v>
+        <v>0.1182795698924731</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.02040816326530612</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05376344086021505</v>
+        <v>0.1612903225806452</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2017,21 +2017,21 @@
         <v>0.02040816326530612</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2043010752688172</v>
+        <v>0.1612903225806452</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.0272108843537415</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2043010752688172</v>
+        <v>0.1827956989247312</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2039,21 +2039,21 @@
         <v>0.0272108843537415</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3225806451612903</v>
+        <v>0.1827956989247312</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.03401360544217687</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3225806451612903</v>
+        <v>0.2043010752688172</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2061,43 +2061,43 @@
         <v>0.03401360544217687</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3440860215053764</v>
+        <v>0.2043010752688172</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.04081632653061224</v>
+        <v>0.03401360544217687</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3440860215053764</v>
+        <v>0.2258064516129032</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.04081632653061224</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3978494623655914</v>
+        <v>0.2258064516129032</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.05442176870748299</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3978494623655914</v>
+        <v>0.2365591397849462</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2105,370 +2105,370 @@
         <v>0.05442176870748299</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4086021505376344</v>
+        <v>0.2365591397849462</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.06802721088435375</v>
+        <v>0.05442176870748299</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4086021505376344</v>
+        <v>0.2795698924731183</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.06802721088435375</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.2795698924731183</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.08163265306122448</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.3010752688172043</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.08163265306122448</v>
+        <v>0.07482993197278912</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.3010752688172043</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.08843537414965986</v>
+        <v>0.07482993197278912</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.08843537414965986</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5053763440860215</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1156462585034014</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5053763440860215</v>
+        <v>0.3655913978494624</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1156462585034014</v>
+        <v>0.08843537414965986</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.3655913978494624</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1224489795918367</v>
+        <v>0.08843537414965986</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.4408602150537634</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1224489795918367</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5591397849462365</v>
+        <v>0.4408602150537634</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1292517006802721</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5591397849462365</v>
+        <v>0.4946236559139785</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1292517006802721</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5698924731182796</v>
+        <v>0.4946236559139785</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.163265306122449</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5698924731182796</v>
+        <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.163265306122449</v>
+        <v>0.108843537414966</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.1700680272108843</v>
+        <v>0.108843537414966</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.5698924731182796</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.1700680272108843</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.5698924731182796</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.1768707482993197</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.5806451612903226</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.1768707482993197</v>
+        <v>0.1360544217687075</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5806451612903226</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.1360544217687075</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5913978494623656</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.1496598639455782</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.5913978494623656</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.1972789115646258</v>
+        <v>0.1496598639455782</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6129032258064516</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.1972789115646258</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6129032258064516</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2244897959183673</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6236559139784946</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2244897959183673</v>
+        <v>0.1768707482993197</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6236559139784946</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.1768707482993197</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.2517006802721088</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.6989247311827957</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.2517006802721088</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6989247311827957</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.7096774193548387</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2108843537414966</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.7096774193548387</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.2925170068027211</v>
+        <v>0.2108843537414966</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.7526881720430108</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.2925170068027211</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7849462365591398</v>
+        <v>0.7526881720430108</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3265306122448979</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C48" t="n">
         <v>0.7849462365591398</v>
@@ -2476,87 +2476,87 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3265306122448979</v>
+        <v>0.2517006802721088</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.7849462365591398</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3401360544217687</v>
+        <v>0.2517006802721088</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.7956989247311828</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3401360544217687</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.7956989247311828</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3469387755102041</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.3469387755102041</v>
+        <v>0.2789115646258503</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.2789115646258503</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8172043010752689</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.8172043010752689</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.3877551020408163</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C56" t="n">
         <v>0.8494623655913979</v>
@@ -2564,32 +2564,32 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.3877551020408163</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8602150537634409</v>
+        <v>0.8494623655913979</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.3945578231292517</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8602150537634409</v>
+        <v>0.8709677419354839</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.3945578231292517</v>
+        <v>0.3129251700680272</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C59" t="n">
         <v>0.8709677419354839</v>
@@ -2597,167 +2597,167 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.4217687074829932</v>
+        <v>0.3129251700680272</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8924731182795699</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.4217687074829932</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8817204301075269</v>
+        <v>0.8924731182795699</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.4693877551020408</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8817204301075269</v>
+        <v>0.9032258064516129</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.4693877551020408</v>
+        <v>0.3401360544217687</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8924731182795699</v>
+        <v>0.9032258064516129</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.4897959183673469</v>
+        <v>0.3401360544217687</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8924731182795699</v>
+        <v>0.9139784946236559</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.4897959183673469</v>
+        <v>0.3945578231292517</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.9139784946236559</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.3945578231292517</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.9247311827956989</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.4829931972789115</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9139784946236559</v>
+        <v>0.9247311827956989</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.54421768707483</v>
+        <v>0.4829931972789115</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9139784946236559</v>
+        <v>0.9354838709677419</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.54421768707483</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9247311827956989</v>
+        <v>0.9354838709677419</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9247311827956989</v>
+        <v>0.946236559139785</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5034013605442177</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.946236559139785</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.6122448979591837</v>
+        <v>0.5034013605442177</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.956989247311828</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.6122448979591837</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C73" t="n">
-        <v>0.946236559139785</v>
+        <v>0.956989247311828</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.7006802721088435</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C74" t="n">
-        <v>0.946236559139785</v>
+        <v>0.967741935483871</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2765,108 +2765,75 @@
         <v>0.7006802721088435</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C75" t="n">
-        <v>0.956989247311828</v>
+        <v>0.967741935483871</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.7278911564625851</v>
+        <v>0.7006802721088435</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C76" t="n">
-        <v>0.956989247311828</v>
+        <v>0.978494623655914</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.7278911564625851</v>
+        <v>0.9455782312925171</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C77" t="n">
-        <v>0.967741935483871</v>
+        <v>0.978494623655914</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.7482993197278912</v>
+        <v>0.9455782312925171</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C78" t="n">
-        <v>0.967741935483871</v>
+        <v>0.989247311827957</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.7482993197278912</v>
+        <v>0.9591836734693877</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C79" t="n">
-        <v>0.978494623655914</v>
+        <v>0.989247311827957</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.7551020408163265</v>
+        <v>0.9591836734693877</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C80" t="n">
-        <v>0.978494623655914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.7551020408163265</v>
+        <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373564</v>
       </c>
       <c r="C81" t="n">
-        <v>0.989247311827957</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="n">
-        <v>0.9251700680272109</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0.8163996781508303</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.989247311827957</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="n">
-        <v>0.9251700680272109</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.8163996781508303</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="n">
-        <v>1</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.8163996781508303</v>
-      </c>
-      <c r="C84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2881,7 +2848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2905,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C2" t="n">
         <v>0.006802721088435374</v>
@@ -2916,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07482993197278912</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2927,10 +2894,10 @@
         <v>0.01075268817204301</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07482993197278912</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2938,10 +2905,10 @@
         <v>0.01075268817204301</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2448979591836735</v>
+        <v>0.05442176870748299</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2949,10 +2916,10 @@
         <v>0.02150537634408602</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2448979591836735</v>
+        <v>0.05442176870748299</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2960,10 +2927,10 @@
         <v>0.02150537634408602</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2517006802721088</v>
+        <v>0.2993197278911565</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2971,10 +2938,10 @@
         <v>0.03225806451612903</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2517006802721088</v>
+        <v>0.2993197278911565</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2982,10 +2949,10 @@
         <v>0.03225806451612903</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C9" t="n">
-        <v>0.272108843537415</v>
+        <v>0.4761904761904762</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2993,10 +2960,10 @@
         <v>0.04301075268817205</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C10" t="n">
-        <v>0.272108843537415</v>
+        <v>0.4761904761904762</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3004,10 +2971,10 @@
         <v>0.04301075268817205</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2993197278911565</v>
+        <v>0.4965986394557823</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3015,10 +2982,10 @@
         <v>0.05376344086021505</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2993197278911565</v>
+        <v>0.4965986394557823</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3026,10 +2993,10 @@
         <v>0.05376344086021505</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3877551020408163</v>
+        <v>0.5102040816326531</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3037,10 +3004,10 @@
         <v>0.06451612903225806</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3877551020408163</v>
+        <v>0.5102040816326531</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3048,10 +3015,10 @@
         <v>0.06451612903225806</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5170068027210885</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3059,10 +3026,10 @@
         <v>0.07526881720430108</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5170068027210885</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3070,10 +3037,10 @@
         <v>0.07526881720430108</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4557823129251701</v>
+        <v>0.6054421768707483</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3081,10 +3048,10 @@
         <v>0.08602150537634409</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4557823129251701</v>
+        <v>0.6054421768707483</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3092,10 +3059,10 @@
         <v>0.08602150537634409</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4693877551020408</v>
+        <v>0.6598639455782312</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3103,10 +3070,10 @@
         <v>0.09677419354838709</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4693877551020408</v>
+        <v>0.6598639455782312</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3114,10 +3081,10 @@
         <v>0.09677419354838709</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.673469387755102</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3125,10 +3092,10 @@
         <v>0.1075268817204301</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.673469387755102</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3136,669 +3103,647 @@
         <v>0.1075268817204301</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.6870748299319728</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1182795698924731</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.6870748299319728</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1182795698924731</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5782312925170068</v>
+        <v>0.6938775510204082</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.1505376344086022</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5782312925170068</v>
+        <v>0.6938775510204082</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.1505376344086022</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6054421768707483</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.1397849462365591</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6054421768707483</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.1397849462365591</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6122448979591837</v>
+        <v>0.7210884353741497</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.1505376344086022</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6122448979591837</v>
+        <v>0.7210884353741497</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.1505376344086022</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6326530612244898</v>
+        <v>0.7346938775510204</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6326530612244898</v>
+        <v>0.7346938775510204</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6530612244897959</v>
+        <v>0.7482993197278912</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.1827956989247312</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6530612244897959</v>
+        <v>0.7482993197278912</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.1827956989247312</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6598639455782312</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.2473118279569892</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6598639455782312</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.2473118279569892</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C37" t="n">
-        <v>0.673469387755102</v>
+        <v>0.7891156462585034</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2150537634408602</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C38" t="n">
-        <v>0.673469387755102</v>
+        <v>0.7891156462585034</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2150537634408602</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7074829931972789</v>
+        <v>0.8095238095238095</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.2258064516129032</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7074829931972789</v>
+        <v>0.8095238095238095</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2258064516129032</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8163265306122449</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.2688172043010753</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8163265306122449</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.2688172043010753</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7482993197278912</v>
+        <v>0.8231292517006803</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.2795698924731183</v>
+        <v>0.3763440860215054</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7482993197278912</v>
+        <v>0.8231292517006803</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.2795698924731183</v>
+        <v>0.3763440860215054</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.8367346938775511</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3010752688172043</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.8367346938775511</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3010752688172043</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7755102040816326</v>
+        <v>0.8503401360544217</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3118279569892473</v>
+        <v>0.4086021505376344</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7755102040816326</v>
+        <v>0.8503401360544217</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3118279569892473</v>
+        <v>0.4086021505376344</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8027210884353742</v>
+        <v>0.8639455782312925</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3225806451612903</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8027210884353742</v>
+        <v>0.8639455782312925</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3225806451612903</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.8775510204081632</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4301075268817204</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.8775510204081632</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4301075268817204</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8231292517006803</v>
+        <v>0.891156462585034</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8231292517006803</v>
+        <v>0.891156462585034</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8299319727891157</v>
+        <v>0.8979591836734694</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.3763440860215054</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8299319727891157</v>
+        <v>0.8979591836734694</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.3763440860215054</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.9047619047619048</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4301075268817204</v>
+        <v>0.5591397849462365</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.9047619047619048</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.4301075268817204</v>
+        <v>0.5591397849462365</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8707482993197279</v>
+        <v>0.9115646258503401</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.4408602150537634</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8707482993197279</v>
+        <v>0.9115646258503401</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.4408602150537634</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.9183673469387755</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.9183673469387755</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8843537414965986</v>
+        <v>0.9251700680272109</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.4946236559139785</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8843537414965986</v>
+        <v>0.9251700680272109</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.4946236559139785</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9115646258503401</v>
+        <v>0.9387755102040817</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9115646258503401</v>
+        <v>0.9387755102040817</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.9455782312925171</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.9455782312925171</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9319727891156463</v>
+        <v>0.9523809523809523</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9319727891156463</v>
+        <v>0.9523809523809523</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9455782312925171</v>
+        <v>0.9659863945578231</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.6021505376344086</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9455782312925171</v>
+        <v>0.9659863945578231</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.6021505376344086</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9591836734693877</v>
+        <v>0.9727891156462585</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9591836734693877</v>
+        <v>0.9727891156462585</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9659863945578231</v>
+        <v>0.9795918367346939</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9659863945578231</v>
+        <v>0.9795918367346939</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9727891156462585</v>
+        <v>0.9863945578231292</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.7956989247311828</v>
+        <v>0.8817204301075269</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9727891156462585</v>
+        <v>0.9863945578231292</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.7956989247311828</v>
+        <v>0.8817204301075269</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9931972789115646</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.946236559139785</v>
+        <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9931972789115646</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.946236559139785</v>
+        <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8163996781508303</v>
+        <v>0.8357106283373565</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9863945578231292</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="n">
-        <v>1</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0.8163996781508303</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.9863945578231292</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="n">
-        <v>1</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.8163996781508303</v>
-      </c>
-      <c r="C83" t="n">
         <v>1</v>
       </c>
     </row>
